--- a/dataExcel/【PP-野牛 _ 古董枪 (久经沙场)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【PP-野牛 _ 古董枪 (久经沙场)】Buff近1个月-总览.xlsx
@@ -422,219 +422,219 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 21:05:41</v>
+        <v>2023-09-17 23:10:49</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>50.76</v>
       </c>
       <c r="C8">
-        <v>64.38</v>
+        <v>62.2</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>46.7</v>
+        <v>43.1</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 02:26:58</v>
+        <v>2023-09-18 04:19:29</v>
       </c>
       <c r="B9">
         <v>50.76</v>
       </c>
       <c r="C9">
-        <v>64.38</v>
+        <v>60.38</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>46.7</v>
+        <v>46.3</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 07:39:11</v>
+        <v>2023-09-18 09:30:47</v>
       </c>
       <c r="B10">
         <v>50.76</v>
       </c>
       <c r="C10">
-        <v>63.65</v>
+        <v>61.1</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>46.6</v>
+        <v>45.6</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 12:50:04</v>
+        <v>2023-09-18 14:41:59</v>
       </c>
       <c r="B11">
-        <v>50.68</v>
+        <v>51.26</v>
       </c>
       <c r="C11">
-        <v>63.65</v>
+        <v>61.1</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>46.2</v>
+        <v>44.9</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 18:03:17</v>
+        <v>2023-09-18 19:52:23</v>
       </c>
       <c r="B12">
-        <v>50.65</v>
+        <v>53.28</v>
       </c>
       <c r="C12">
-        <v>63.29</v>
+        <v>60.52</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>46.3</v>
+        <v>43.2</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 23:10:49</v>
+        <v>2023-09-19 00:59:42</v>
       </c>
       <c r="B13">
-        <v>50.76</v>
+        <v>55.89</v>
       </c>
       <c r="C13">
-        <v>62.2</v>
+        <v>60.52</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>43.1</v>
+        <v>49.3</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 04:19:29</v>
+        <v>2023-09-19 06:12:39</v>
       </c>
       <c r="B14">
-        <v>50.76</v>
+        <v>55.89</v>
       </c>
       <c r="C14">
-        <v>60.38</v>
+        <v>60.74</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>46.3</v>
+        <v>49.3</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 09:30:47</v>
+        <v>2023-09-19 11:19:48</v>
       </c>
       <c r="B15">
-        <v>50.76</v>
+        <v>55.89</v>
       </c>
       <c r="C15">
-        <v>61.1</v>
+        <v>60.74</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 14:41:59</v>
+        <v>2023-09-19 16:30:31</v>
       </c>
       <c r="B16">
-        <v>51.26</v>
+        <v>54.49</v>
       </c>
       <c r="C16">
-        <v>61.1</v>
+        <v>60.74</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>44.9</v>
+        <v>46.5</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 19:52:23</v>
+        <v>2023-09-19 21:44:01</v>
       </c>
       <c r="B17">
-        <v>53.28</v>
+        <v>54.49</v>
       </c>
       <c r="C17">
-        <v>60.52</v>
+        <v>60.89</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>43.2</v>
+        <v>49.8</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-19 00:59:42</v>
+        <v>2023-09-20 02:50:24</v>
       </c>
       <c r="B18">
-        <v>55.89</v>
+        <v>54.3</v>
       </c>
       <c r="C18">
-        <v>60.52</v>
+        <v>63.88</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>49.3</v>
+        <v>46.2</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -642,179 +642,179 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 06:12:39</v>
+        <v>2023-09-20 08:02:58</v>
       </c>
       <c r="B19">
-        <v>55.89</v>
+        <v>54.3</v>
       </c>
       <c r="C19">
-        <v>60.74</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>49.3</v>
+        <v>48.4</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 11:19:48</v>
+        <v>2023-09-20 13:09:18</v>
       </c>
       <c r="B20">
-        <v>55.89</v>
+        <v>54.29</v>
       </c>
       <c r="C20">
-        <v>60.74</v>
+        <v>61.88</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>45.5</v>
+        <v>49.4</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 16:30:31</v>
+        <v>2023-09-20 18:22:57</v>
       </c>
       <c r="B21">
-        <v>54.49</v>
+        <v>54.2</v>
       </c>
       <c r="C21">
-        <v>60.74</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 21:44:01</v>
+        <v>2023-09-20 23:30:14</v>
       </c>
       <c r="B22">
-        <v>54.49</v>
+        <v>54.3</v>
       </c>
       <c r="C22">
-        <v>60.89</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-20 02:50:24</v>
+        <v>2023-09-21 04:38:42</v>
       </c>
       <c r="B23">
-        <v>54.3</v>
+        <v>54.19</v>
       </c>
       <c r="C23">
-        <v>63.88</v>
+        <v>63.91</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>46.2</v>
+        <v>49.6</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 08:02:58</v>
+        <v>2023-09-21 09:53:41</v>
       </c>
       <c r="B24">
-        <v>54.3</v>
+        <v>54.09</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>64.06</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>48.4</v>
+        <v>49.6</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 13:09:18</v>
+        <v>2023-09-21 14:59:24</v>
       </c>
       <c r="B25">
-        <v>54.29</v>
+        <v>54.19</v>
       </c>
       <c r="C25">
-        <v>61.88</v>
+        <v>64.06</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 18:22:57</v>
+        <v>2023-09-21 20:12:11</v>
       </c>
       <c r="B26">
-        <v>54.2</v>
+        <v>54.18</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>64.06</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 23:30:14</v>
+        <v>2023-09-22 01:19:05</v>
       </c>
       <c r="B27">
-        <v>54.3</v>
+        <v>53.98</v>
       </c>
       <c r="C27">
-        <v>64</v>
+        <v>64.06</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>49.5</v>
+        <v>47.3</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -822,99 +822,99 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-21 04:38:42</v>
+        <v>2023-09-22 06:30:02</v>
       </c>
       <c r="B28">
-        <v>54.19</v>
+        <v>53.97</v>
       </c>
       <c r="C28">
-        <v>63.91</v>
+        <v>64.67</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 09:53:41</v>
+        <v>2023-09-22 11:40:24</v>
       </c>
       <c r="B29">
-        <v>54.09</v>
+        <v>53.97</v>
       </c>
       <c r="C29">
-        <v>64.06</v>
+        <v>64.67</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>49.6</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 14:59:24</v>
+        <v>2023-09-22 16:50:59</v>
       </c>
       <c r="B30">
-        <v>54.19</v>
+        <v>53.55</v>
       </c>
       <c r="C30">
-        <v>64.06</v>
+        <v>64.53</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 20:12:11</v>
+        <v>2023-09-22 22:02:47</v>
       </c>
       <c r="B31">
-        <v>54.18</v>
+        <v>53.97</v>
       </c>
       <c r="C31">
-        <v>64.06</v>
+        <v>64.67</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-22 01:19:05</v>
+        <v>2023-09-23 03:09:34</v>
       </c>
       <c r="B32">
-        <v>53.98</v>
+        <v>53.97</v>
       </c>
       <c r="C32">
-        <v>64.06</v>
+        <v>64.67</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>47.3</v>
+        <v>49.6</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -922,199 +922,199 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 06:30:02</v>
+        <v>2023-09-23 08:20:30</v>
       </c>
       <c r="B33">
-        <v>53.97</v>
+        <v>53.96</v>
       </c>
       <c r="C33">
-        <v>64.67</v>
+        <v>64.44</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>47.4</v>
+        <v>49.6</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 11:40:24</v>
+        <v>2023-09-23 13:31:08</v>
       </c>
       <c r="B34">
-        <v>53.97</v>
+        <v>53.94</v>
       </c>
       <c r="C34">
-        <v>64.67</v>
+        <v>64.59</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>49.6</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 16:50:59</v>
+        <v>2023-09-23 18:40:00</v>
       </c>
       <c r="B35">
-        <v>53.55</v>
+        <v>53.94</v>
       </c>
       <c r="C35">
-        <v>64.53</v>
+        <v>64.59</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>48.4</v>
+        <v>49.3</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 22:02:47</v>
+        <v>2023-09-23 23:49:52</v>
       </c>
       <c r="B36">
-        <v>53.97</v>
+        <v>53.94</v>
       </c>
       <c r="C36">
-        <v>64.67</v>
+        <v>64.59</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-23 03:09:34</v>
+        <v>2023-09-24 05:01:11</v>
       </c>
       <c r="B37">
-        <v>53.97</v>
+        <v>53.96</v>
       </c>
       <c r="C37">
-        <v>64.67</v>
+        <v>64.58</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 08:20:30</v>
+        <v>2023-09-24 10:09:57</v>
       </c>
       <c r="B38">
         <v>53.96</v>
       </c>
       <c r="C38">
-        <v>64.44</v>
+        <v>65.09</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 13:31:08</v>
+        <v>2023-09-24 15:22:16</v>
       </c>
       <c r="B39">
-        <v>53.94</v>
+        <v>53.96</v>
       </c>
       <c r="C39">
-        <v>64.59</v>
+        <v>65.09</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 18:40:00</v>
+        <v>2023-09-24 20:30:08</v>
       </c>
       <c r="B40">
-        <v>53.94</v>
+        <v>56.9</v>
       </c>
       <c r="C40">
-        <v>64.59</v>
+        <v>65.09</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 23:49:52</v>
+        <v>2023-09-25 01:40:30</v>
       </c>
       <c r="B41">
-        <v>53.94</v>
+        <v>56.59</v>
       </c>
       <c r="C41">
-        <v>64.59</v>
+        <v>65.09</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-24 05:01:11</v>
+        <v>2023-09-25 06:50:29</v>
       </c>
       <c r="B42">
-        <v>53.96</v>
+        <v>56.59</v>
       </c>
       <c r="C42">
-        <v>64.58</v>
+        <v>65.09</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>48.2</v>
+        <v>49.6</v>
       </c>
       <c r="F42">
         <v>12</v>
@@ -1122,139 +1122,139 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 10:09:57</v>
+        <v>2023-09-25 12:00:22</v>
       </c>
       <c r="B43">
-        <v>53.96</v>
+        <v>56.59</v>
       </c>
       <c r="C43">
         <v>65.09</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 15:22:16</v>
+        <v>2023-09-25 17:12:07</v>
       </c>
       <c r="B44">
-        <v>53.96</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>65.09</v>
+        <v>65.67</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 20:30:08</v>
+        <v>2023-09-25 22:20:27</v>
       </c>
       <c r="B45">
-        <v>56.9</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>65.09</v>
+        <v>65.67</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>48.6</v>
+        <v>49.8</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-25 01:40:30</v>
+        <v>2023-09-26 03:30:36</v>
       </c>
       <c r="B46">
-        <v>56.59</v>
+        <v>54.93</v>
       </c>
       <c r="C46">
-        <v>65.09</v>
+        <v>65.81</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>47.5</v>
+        <v>48.3</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 06:50:29</v>
+        <v>2023-09-26 08:40:33</v>
       </c>
       <c r="B47">
-        <v>56.59</v>
+        <v>54.81</v>
       </c>
       <c r="C47">
-        <v>65.09</v>
+        <v>66.39</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>49.6</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 12:00:22</v>
+        <v>2023-09-26 13:50:33</v>
       </c>
       <c r="B48">
-        <v>56.59</v>
+        <v>54.83</v>
       </c>
       <c r="C48">
-        <v>65.09</v>
+        <v>66.39</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E48">
-        <v>49.4</v>
+        <v>48.3</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 17:12:07</v>
+        <v>2023-09-26 19:01:27</v>
       </c>
       <c r="B49">
-        <v>55</v>
+        <v>54.51</v>
       </c>
       <c r="C49">
-        <v>65.67</v>
+        <v>67.05</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>11</v>
@@ -1262,79 +1262,79 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 22:20:27</v>
+        <v>2023-09-27 00:10:39</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>54.07</v>
       </c>
       <c r="C50">
-        <v>65.67</v>
+        <v>67.05</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>49.8</v>
+        <v>48.3</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-26 03:30:36</v>
+        <v>2023-09-27 05:21:58</v>
       </c>
       <c r="B51">
-        <v>54.93</v>
+        <v>54.04</v>
       </c>
       <c r="C51">
-        <v>65.81</v>
+        <v>67.05</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E51">
-        <v>48.3</v>
+        <v>46.3</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 08:40:33</v>
+        <v>2023-09-27 10:32:04</v>
       </c>
       <c r="B52">
-        <v>54.81</v>
+        <v>54.04</v>
       </c>
       <c r="C52">
-        <v>66.39</v>
+        <v>67.05</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 13:50:33</v>
+        <v>2023-09-27 15:40:49</v>
       </c>
       <c r="B53">
-        <v>54.83</v>
+        <v>53.94</v>
       </c>
       <c r="C53">
-        <v>66.39</v>
+        <v>67.05</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>48.3</v>
+        <v>45.4</v>
       </c>
       <c r="F53">
         <v>12</v>
@@ -1342,19 +1342,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 19:01:27</v>
+        <v>2023-09-27 20:50:47</v>
       </c>
       <c r="B54">
-        <v>54.51</v>
+        <v>49.96</v>
       </c>
       <c r="C54">
-        <v>67.05</v>
+        <v>65.8</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>45.3</v>
       </c>
       <c r="F54">
         <v>11</v>
@@ -1362,19 +1362,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-27 00:10:39</v>
+        <v>2023-09-28 02:02:06</v>
       </c>
       <c r="B55">
-        <v>54.07</v>
+        <v>53.77</v>
       </c>
       <c r="C55">
-        <v>67.05</v>
+        <v>66.97</v>
       </c>
       <c r="D55">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>48.3</v>
+        <v>47</v>
       </c>
       <c r="F55">
         <v>12</v>
@@ -1382,19 +1382,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-27 05:21:58</v>
+        <v>2023-09-28 07:10:53</v>
       </c>
       <c r="B56">
-        <v>54.04</v>
+        <v>53.77</v>
       </c>
       <c r="C56">
-        <v>67.05</v>
+        <v>66.89</v>
       </c>
       <c r="D56">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>46.3</v>
+        <v>47</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -1402,39 +1402,39 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 10:32:04</v>
+        <v>2023-09-28 12:22:24</v>
       </c>
       <c r="B57">
-        <v>54.04</v>
+        <v>53.86</v>
       </c>
       <c r="C57">
-        <v>67.05</v>
+        <v>66.81</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>48</v>
+        <v>45.2</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 15:40:49</v>
+        <v>2023-09-28 17:31:27</v>
       </c>
       <c r="B58">
-        <v>53.94</v>
+        <v>53.75</v>
       </c>
       <c r="C58">
-        <v>67.05</v>
+        <v>66.81</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E58">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="F58">
         <v>12</v>
@@ -1442,79 +1442,79 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 20:50:47</v>
+        <v>2023-09-28 22:41:05</v>
       </c>
       <c r="B59">
-        <v>49.96</v>
+        <v>53.72</v>
       </c>
       <c r="C59">
-        <v>65.8</v>
+        <v>66.45</v>
       </c>
       <c r="D59">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>45.3</v>
+        <v>46.1</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-28 02:02:06</v>
+        <v>2023-09-29 03:52:36</v>
       </c>
       <c r="B60">
-        <v>53.77</v>
+        <v>53.7</v>
       </c>
       <c r="C60">
-        <v>66.97</v>
+        <v>66.36</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E60">
-        <v>47</v>
+        <v>46.3</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 07:10:53</v>
+        <v>2023-09-29 09:03:04</v>
       </c>
       <c r="B61">
-        <v>53.77</v>
+        <v>53.58</v>
       </c>
       <c r="C61">
-        <v>66.89</v>
+        <v>66.36</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <v>47</v>
+        <v>46.6</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 12:22:24</v>
+        <v>2023-09-29 14:11:17</v>
       </c>
       <c r="B62">
-        <v>53.86</v>
+        <v>53.53</v>
       </c>
       <c r="C62">
-        <v>66.81</v>
+        <v>66.36</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="F62">
         <v>10</v>
@@ -1522,259 +1522,259 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 17:31:27</v>
+        <v>2023-09-29 19:21:15</v>
       </c>
       <c r="B63">
-        <v>53.75</v>
+        <v>53.16</v>
       </c>
       <c r="C63">
-        <v>66.81</v>
+        <v>66.36</v>
       </c>
       <c r="D63">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E63">
-        <v>45.6</v>
+        <v>45.9</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 22:41:05</v>
+        <v>2023-09-30 00:26:17</v>
       </c>
       <c r="B64">
-        <v>53.72</v>
+        <v>50</v>
       </c>
       <c r="C64">
-        <v>66.45</v>
+        <v>66.36</v>
       </c>
       <c r="D64">
         <v>35</v>
       </c>
       <c r="E64">
-        <v>46.1</v>
+        <v>45.2</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-29 03:52:36</v>
+        <v>2023-09-30 05:32:59</v>
       </c>
       <c r="B65">
-        <v>53.7</v>
+        <v>49.95</v>
       </c>
       <c r="C65">
-        <v>66.36</v>
+        <v>65</v>
       </c>
       <c r="D65">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E65">
-        <v>46.3</v>
+        <v>45.2</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 09:03:04</v>
+        <v>2023-09-30 10:41:23</v>
       </c>
       <c r="B66">
-        <v>53.58</v>
+        <v>53.06</v>
       </c>
       <c r="C66">
-        <v>66.36</v>
+        <v>64.56</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E66">
-        <v>46.6</v>
+        <v>45.3</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 14:11:17</v>
+        <v>2023-09-30 15:51:22</v>
       </c>
       <c r="B67">
-        <v>53.53</v>
+        <v>52.9</v>
       </c>
       <c r="C67">
-        <v>66.36</v>
+        <v>63.84</v>
       </c>
       <c r="D67">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E67">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 19:21:15</v>
+        <v>2023-09-30 21:01:20</v>
       </c>
       <c r="B68">
-        <v>53.16</v>
+        <v>52.89</v>
       </c>
       <c r="C68">
-        <v>66.36</v>
+        <v>61.79</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E68">
-        <v>45.9</v>
+        <v>45.3</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-30 00:26:17</v>
+        <v>2023-10-01 02:11:19</v>
       </c>
       <c r="B69">
-        <v>50</v>
+        <v>52.98</v>
       </c>
       <c r="C69">
-        <v>66.36</v>
+        <v>61.65</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E69">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-30 05:32:59</v>
+        <v>2023-10-01 07:22:28</v>
       </c>
       <c r="B70">
-        <v>49.95</v>
+        <v>52.98</v>
       </c>
       <c r="C70">
-        <v>65</v>
+        <v>61.35</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E70">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="F70">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 10:41:23</v>
+        <v>2023-10-01 12:31:24</v>
       </c>
       <c r="B71">
-        <v>53.06</v>
+        <v>52.77</v>
       </c>
       <c r="C71">
-        <v>64.56</v>
+        <v>61.06</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>45.3</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 15:51:22</v>
+        <v>2023-10-01 17:41:23</v>
       </c>
       <c r="B72">
-        <v>52.9</v>
+        <v>52.51</v>
       </c>
       <c r="C72">
-        <v>63.84</v>
+        <v>61.42</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E72">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="F72">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 21:01:20</v>
+        <v>2023-10-01 22:51:21</v>
       </c>
       <c r="B73">
-        <v>52.89</v>
+        <v>52.5</v>
       </c>
       <c r="C73">
-        <v>61.79</v>
+        <v>61.35</v>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E73">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-10-01 02:11:19</v>
+        <v>2023-10-02 04:01:19</v>
       </c>
       <c r="B74">
-        <v>52.98</v>
+        <v>52.4</v>
       </c>
       <c r="C74">
-        <v>61.65</v>
+        <v>62.77</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E74">
-        <v>45.3</v>
+        <v>45.6</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 07:22:28</v>
+        <v>2023-10-02 09:11:17</v>
       </c>
       <c r="B75">
-        <v>52.98</v>
+        <v>52.3</v>
       </c>
       <c r="C75">
-        <v>61.35</v>
+        <v>57.53</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E75">
-        <v>45.3</v>
+        <v>45.9</v>
       </c>
       <c r="F75">
         <v>5</v>
@@ -1782,136 +1782,136 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 12:31:24</v>
+        <v>2023-10-02 14:21:15</v>
       </c>
       <c r="B76">
-        <v>52.77</v>
+        <v>52.17</v>
       </c>
       <c r="C76">
-        <v>61.06</v>
+        <v>60.76</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E76">
-        <v>45.3</v>
+        <v>46</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 17:41:23</v>
+        <v>2023-10-02 19:31:14</v>
       </c>
       <c r="B77">
-        <v>52.51</v>
+        <v>51.76</v>
       </c>
       <c r="C77">
-        <v>61.42</v>
+        <v>62.77</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E77">
         <v>45.1</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 22:51:21</v>
+        <v>2023-10-03 00:41:12</v>
       </c>
       <c r="B78">
-        <v>52.5</v>
+        <v>51.14</v>
       </c>
       <c r="C78">
-        <v>61.35</v>
+        <v>61.12</v>
       </c>
       <c r="D78">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E78">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-02 04:01:19</v>
+        <v>2023-10-03 05:51:11</v>
       </c>
       <c r="B79">
-        <v>52.4</v>
+        <v>51.14</v>
       </c>
       <c r="C79">
-        <v>62.77</v>
+        <v>60.62</v>
       </c>
       <c r="D79">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E79">
-        <v>45.6</v>
+        <v>45.1</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 09:11:17</v>
+        <v>2023-10-03 11:01:10</v>
       </c>
       <c r="B80">
-        <v>52.3</v>
+        <v>51.12</v>
       </c>
       <c r="C80">
-        <v>57.53</v>
+        <v>60.34</v>
       </c>
       <c r="D80">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E80">
-        <v>45.9</v>
+        <v>45.1</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 14:21:15</v>
+        <v>2023-10-03 16:11:09</v>
       </c>
       <c r="B81">
-        <v>52.17</v>
+        <v>50.88</v>
       </c>
       <c r="C81">
-        <v>60.76</v>
+        <v>60.7</v>
       </c>
       <c r="D81">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E81">
-        <v>46</v>
+        <v>45.1</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 19:31:14</v>
+        <v>2023-10-03 21:21:08</v>
       </c>
       <c r="B82">
-        <v>51.76</v>
+        <v>50.64</v>
       </c>
       <c r="C82">
-        <v>62.77</v>
+        <v>62.85</v>
       </c>
       <c r="D82">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E82">
         <v>45.1</v>
@@ -1922,16 +1922,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-03 00:41:12</v>
+        <v>2023-10-04 02:31:06</v>
       </c>
       <c r="B83">
-        <v>51.14</v>
+        <v>50.49</v>
       </c>
       <c r="C83">
-        <v>61.12</v>
+        <v>61.56</v>
       </c>
       <c r="D83">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E83">
         <v>45.1</v>
@@ -1942,16 +1942,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 05:51:11</v>
+        <v>2023-10-04 07:41:05</v>
       </c>
       <c r="B84">
-        <v>51.14</v>
+        <v>50.49</v>
       </c>
       <c r="C84">
-        <v>60.62</v>
+        <v>60.67</v>
       </c>
       <c r="D84">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E84">
         <v>45.1</v>
@@ -1962,16 +1962,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 11:01:10</v>
+        <v>2023-10-04 12:51:45</v>
       </c>
       <c r="B85">
-        <v>51.12</v>
+        <v>50.01</v>
       </c>
       <c r="C85">
-        <v>60.34</v>
+        <v>60.67</v>
       </c>
       <c r="D85">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <v>45.1</v>
@@ -1982,16 +1982,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 16:11:09</v>
+        <v>2023-10-04 18:01:10</v>
       </c>
       <c r="B86">
-        <v>50.88</v>
+        <v>49.68</v>
       </c>
       <c r="C86">
-        <v>60.7</v>
+        <v>62.98</v>
       </c>
       <c r="D86">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E86">
         <v>45.1</v>
@@ -2002,176 +2002,176 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 21:21:08</v>
+        <v>2023-10-04 23:11:09</v>
       </c>
       <c r="B87">
-        <v>50.64</v>
+        <v>48.06</v>
       </c>
       <c r="C87">
-        <v>62.85</v>
+        <v>62.98</v>
       </c>
       <c r="D87">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E87">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-04 02:31:06</v>
+        <v>2023-10-05 04:21:07</v>
       </c>
       <c r="B88">
-        <v>50.49</v>
+        <v>47.85</v>
       </c>
       <c r="C88">
-        <v>61.56</v>
+        <v>62.98</v>
       </c>
       <c r="D88">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E88">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 07:41:05</v>
+        <v>2023-10-05 09:31:05</v>
       </c>
       <c r="B89">
-        <v>50.49</v>
+        <v>47</v>
       </c>
       <c r="C89">
-        <v>60.67</v>
+        <v>63.34</v>
       </c>
       <c r="D89">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E89">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 12:51:45</v>
+        <v>2023-10-05 14:41:03</v>
       </c>
       <c r="B90">
-        <v>50.01</v>
+        <v>46.76</v>
       </c>
       <c r="C90">
-        <v>60.67</v>
+        <v>62.05</v>
       </c>
       <c r="D90">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E90">
-        <v>45.1</v>
+        <v>41</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 18:01:10</v>
+        <v>2023-10-05 19:51:02</v>
       </c>
       <c r="B91">
-        <v>49.68</v>
+        <v>46.69</v>
       </c>
       <c r="C91">
-        <v>62.98</v>
+        <v>62.05</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E91">
-        <v>45.1</v>
+        <v>41.8</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 23:11:09</v>
+        <v>2023-10-06 01:01:57</v>
       </c>
       <c r="B92">
-        <v>48.06</v>
+        <v>46.43</v>
       </c>
       <c r="C92">
-        <v>62.98</v>
+        <v>62.05</v>
       </c>
       <c r="D92">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E92">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-05 04:21:07</v>
+        <v>2023-10-06 06:11:07</v>
       </c>
       <c r="B93">
-        <v>47.85</v>
+        <v>46.65</v>
       </c>
       <c r="C93">
-        <v>62.98</v>
+        <v>61.42</v>
       </c>
       <c r="D93">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E93">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 09:31:05</v>
+        <v>2023-10-06 11:21:05</v>
       </c>
       <c r="B94">
-        <v>47</v>
+        <v>46.59</v>
       </c>
       <c r="C94">
-        <v>63.34</v>
+        <v>61.42</v>
       </c>
       <c r="D94">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E94">
-        <v>45</v>
+        <v>41.8</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 14:41:03</v>
+        <v>2023-10-06 16:31:03</v>
       </c>
       <c r="B95">
-        <v>46.76</v>
+        <v>46.59</v>
       </c>
       <c r="C95">
-        <v>62.05</v>
+        <v>61.42</v>
       </c>
       <c r="D95">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E95">
         <v>41</v>
@@ -2182,19 +2182,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 19:51:02</v>
+        <v>2023-10-06 21:41:02</v>
       </c>
       <c r="B96">
-        <v>46.69</v>
+        <v>46.38</v>
       </c>
       <c r="C96">
-        <v>62.05</v>
+        <v>61.35</v>
       </c>
       <c r="D96">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E96">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="F96">
         <v>11</v>
@@ -2202,16 +2202,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-06 01:01:57</v>
+        <v>2023-10-07 02:51:00</v>
       </c>
       <c r="B97">
-        <v>46.43</v>
+        <v>46.18</v>
       </c>
       <c r="C97">
-        <v>62.05</v>
+        <v>62.21</v>
       </c>
       <c r="D97">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E97">
         <v>41</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 06:11:07</v>
+        <v>2023-10-07 08:00:59</v>
       </c>
       <c r="B98">
-        <v>46.65</v>
+        <v>46.18</v>
       </c>
       <c r="C98">
-        <v>61.42</v>
+        <v>61.31</v>
       </c>
       <c r="D98">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E98">
         <v>41</v>
@@ -2242,39 +2242,39 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 11:21:05</v>
+        <v>2023-10-07 13:10:57</v>
       </c>
       <c r="B99">
-        <v>46.59</v>
+        <v>46.37</v>
       </c>
       <c r="C99">
-        <v>61.42</v>
+        <v>61.31</v>
       </c>
       <c r="D99">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E99">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 16:31:03</v>
+        <v>2023-10-07 18:20:55</v>
       </c>
       <c r="B100">
-        <v>46.59</v>
+        <v>46.36</v>
       </c>
       <c r="C100">
-        <v>61.42</v>
+        <v>61.31</v>
       </c>
       <c r="D100">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E100">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F100">
         <v>11</v>
@@ -2282,39 +2282,39 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 21:41:02</v>
+        <v>2023-10-07 23:23:52</v>
       </c>
       <c r="B101">
-        <v>46.38</v>
+        <v>46.35</v>
       </c>
       <c r="C101">
-        <v>61.35</v>
+        <v>65.77</v>
       </c>
       <c r="D101">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E101">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F101">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-07 02:51:00</v>
+        <v>2023-10-08 04:34:22</v>
       </c>
       <c r="B102">
-        <v>46.18</v>
+        <v>49.4</v>
       </c>
       <c r="C102">
-        <v>62.21</v>
+        <v>62.09</v>
       </c>
       <c r="D102">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E102">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="F102">
         <v>11</v>
@@ -2322,19 +2322,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 08:00:59</v>
+        <v>2023-10-08 09:44:17</v>
       </c>
       <c r="B103">
-        <v>46.18</v>
+        <v>49.4</v>
       </c>
       <c r="C103">
-        <v>61.31</v>
+        <v>64.18</v>
       </c>
       <c r="D103">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E103">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="F103">
         <v>11</v>
@@ -2342,19 +2342,19 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 13:10:57</v>
+        <v>2023-10-08 14:56:45</v>
       </c>
       <c r="B104">
-        <v>46.37</v>
+        <v>49.17</v>
       </c>
       <c r="C104">
-        <v>61.31</v>
+        <v>64.18</v>
       </c>
       <c r="D104">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E104">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="F104">
         <v>11</v>
@@ -2362,59 +2362,59 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 18:20:55</v>
+        <v>2023-10-08 20:04:26</v>
       </c>
       <c r="B105">
-        <v>46.36</v>
+        <v>48.78</v>
       </c>
       <c r="C105">
-        <v>61.31</v>
+        <v>64.18</v>
       </c>
       <c r="D105">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E105">
-        <v>44</v>
+        <v>41.9</v>
       </c>
       <c r="F105">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 23:23:52</v>
+        <v>2023-10-09 01:14:18</v>
       </c>
       <c r="B106">
-        <v>46.35</v>
+        <v>48.76</v>
       </c>
       <c r="C106">
-        <v>65.77</v>
+        <v>64.11</v>
       </c>
       <c r="D106">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E106">
-        <v>40.6</v>
+        <v>42.8</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-08 04:34:22</v>
+        <v>2023-10-09 06:24:32</v>
       </c>
       <c r="B107">
-        <v>49.4</v>
+        <v>48.76</v>
       </c>
       <c r="C107">
-        <v>62.09</v>
+        <v>64.11</v>
       </c>
       <c r="D107">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E107">
-        <v>40.7</v>
+        <v>42.8</v>
       </c>
       <c r="F107">
         <v>11</v>
@@ -2422,16 +2422,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 09:44:17</v>
+        <v>2023-10-09 11:34:30</v>
       </c>
       <c r="B108">
-        <v>49.4</v>
+        <v>48.75</v>
       </c>
       <c r="C108">
-        <v>64.18</v>
+        <v>63.24</v>
       </c>
       <c r="D108">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E108">
         <v>40.7</v>
@@ -2442,59 +2442,59 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 14:56:45</v>
+        <v>2023-10-09 16:45:36</v>
       </c>
       <c r="B109">
-        <v>49.17</v>
+        <v>48.1</v>
       </c>
       <c r="C109">
-        <v>64.18</v>
+        <v>64.11</v>
       </c>
       <c r="D109">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E109">
-        <v>40.7</v>
+        <v>41.1</v>
       </c>
       <c r="F109">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 20:04:26</v>
+        <v>2023-10-09 21:55:39</v>
       </c>
       <c r="B110">
-        <v>48.78</v>
+        <v>48.08</v>
       </c>
       <c r="C110">
-        <v>64.18</v>
+        <v>64.03</v>
       </c>
       <c r="D110">
         <v>56</v>
       </c>
       <c r="E110">
-        <v>41.9</v>
+        <v>42.3</v>
       </c>
       <c r="F110">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-09 01:14:18</v>
+        <v>2023-10-10 03:04:42</v>
       </c>
       <c r="B111">
-        <v>48.76</v>
+        <v>47.78</v>
       </c>
       <c r="C111">
-        <v>64.11</v>
+        <v>64.03</v>
       </c>
       <c r="D111">
         <v>53</v>
       </c>
       <c r="E111">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="F111">
         <v>11</v>
@@ -2502,19 +2502,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 06:24:32</v>
+        <v>2023-10-10 08:14:40</v>
       </c>
       <c r="B112">
-        <v>48.76</v>
+        <v>47.98</v>
       </c>
       <c r="C112">
-        <v>64.11</v>
+        <v>64.39</v>
       </c>
       <c r="D112">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="F112">
         <v>11</v>
@@ -2522,19 +2522,19 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 11:34:30</v>
+        <v>2023-10-10 13:25:37</v>
       </c>
       <c r="B113">
-        <v>48.75</v>
+        <v>47.79</v>
       </c>
       <c r="C113">
-        <v>63.24</v>
+        <v>64.31</v>
       </c>
       <c r="D113">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E113">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="F113">
         <v>11</v>
@@ -2542,39 +2542,39 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 16:45:36</v>
+        <v>2023-10-10 18:35:18</v>
       </c>
       <c r="B114">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="C114">
-        <v>64.11</v>
+        <v>64.9</v>
       </c>
       <c r="D114">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E114">
-        <v>41.1</v>
+        <v>42.8</v>
       </c>
       <c r="F114">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 21:55:39</v>
+        <v>2023-10-10 23:46:43</v>
       </c>
       <c r="B115">
-        <v>48.08</v>
+        <v>47.8</v>
       </c>
       <c r="C115">
-        <v>64.03</v>
+        <v>64.9</v>
       </c>
       <c r="D115">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E115">
-        <v>42.3</v>
+        <v>43.8</v>
       </c>
       <c r="F115">
         <v>11</v>
@@ -2582,56 +2582,56 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-10 03:04:42</v>
+        <v>2023-10-11 04:54:59</v>
       </c>
       <c r="B116">
-        <v>47.78</v>
+        <v>47.8</v>
       </c>
       <c r="C116">
-        <v>64.03</v>
+        <v>64.93</v>
       </c>
       <c r="D116">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E116">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="F116">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 08:14:40</v>
+        <v>2023-10-11 10:04:58</v>
       </c>
       <c r="B117">
-        <v>47.98</v>
+        <v>47.79</v>
       </c>
       <c r="C117">
-        <v>64.39</v>
+        <v>64.93</v>
       </c>
       <c r="D117">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E117">
-        <v>42.9</v>
+        <v>41.4</v>
       </c>
       <c r="F117">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 13:25:37</v>
+        <v>2023-10-11 15:14:56</v>
       </c>
       <c r="B118">
-        <v>47.79</v>
+        <v>47.69</v>
       </c>
       <c r="C118">
-        <v>64.31</v>
+        <v>65.66</v>
       </c>
       <c r="D118">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E118">
         <v>41</v>
@@ -2642,359 +2642,359 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 18:35:18</v>
+        <v>2023-10-11 20:24:54</v>
       </c>
       <c r="B119">
-        <v>47.6</v>
+        <v>47.69</v>
       </c>
       <c r="C119">
-        <v>64.9</v>
+        <v>65.59</v>
       </c>
       <c r="D119">
         <v>48</v>
       </c>
       <c r="E119">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 23:46:43</v>
+        <v>2023-10-12 01:36:57</v>
       </c>
       <c r="B120">
-        <v>47.8</v>
+        <v>47.59</v>
       </c>
       <c r="C120">
-        <v>64.9</v>
+        <v>65.59</v>
       </c>
       <c r="D120">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E120">
-        <v>43.8</v>
+        <v>40.79</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-11 04:54:59</v>
+        <v>2023-10-12 06:46:23</v>
       </c>
       <c r="B121">
-        <v>47.8</v>
+        <v>47.59</v>
       </c>
       <c r="C121">
-        <v>64.93</v>
+        <v>65.63</v>
       </c>
       <c r="D121">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E121">
-        <v>43.7</v>
+        <v>41.3</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 10:04:58</v>
+        <v>2023-10-12 11:55:54</v>
       </c>
       <c r="B122">
-        <v>47.79</v>
+        <v>47.28</v>
       </c>
       <c r="C122">
-        <v>64.93</v>
+        <v>65.56</v>
       </c>
       <c r="D122">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E122">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="F122">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 15:14:56</v>
+        <v>2023-10-12 17:06:09</v>
       </c>
       <c r="B123">
-        <v>47.69</v>
+        <v>47.45</v>
       </c>
       <c r="C123">
-        <v>65.66</v>
+        <v>66.14</v>
       </c>
       <c r="D123">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E123">
-        <v>41</v>
+        <v>41.6</v>
       </c>
       <c r="F123">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 20:24:54</v>
+        <v>2023-10-12 22:15:18</v>
       </c>
       <c r="B124">
-        <v>47.69</v>
+        <v>47.24</v>
       </c>
       <c r="C124">
-        <v>65.59</v>
+        <v>66.14</v>
       </c>
       <c r="D124">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E124">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="F124">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-12 01:36:57</v>
+        <v>2023-10-13 03:26:09</v>
       </c>
       <c r="B125">
-        <v>47.59</v>
+        <v>46.84</v>
       </c>
       <c r="C125">
-        <v>65.59</v>
+        <v>66.16</v>
       </c>
       <c r="D125">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E125">
-        <v>40.79</v>
+        <v>41</v>
       </c>
       <c r="F125">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 06:46:23</v>
+        <v>2023-10-13 08:36:22</v>
       </c>
       <c r="B126">
-        <v>47.59</v>
+        <v>46.74</v>
       </c>
       <c r="C126">
-        <v>65.63</v>
+        <v>66.75</v>
       </c>
       <c r="D126">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E126">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 11:55:54</v>
+        <v>2023-10-13 13:45:41</v>
       </c>
       <c r="B127">
-        <v>47.28</v>
+        <v>46.61</v>
       </c>
       <c r="C127">
-        <v>65.56</v>
+        <v>66.75</v>
       </c>
       <c r="D127">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E127">
-        <v>40.7</v>
+        <v>41.7</v>
       </c>
       <c r="F127">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 17:06:09</v>
+        <v>2023-10-13 18:56:12</v>
       </c>
       <c r="B128">
-        <v>47.45</v>
+        <v>46.58</v>
       </c>
       <c r="C128">
-        <v>66.14</v>
+        <v>68.86</v>
       </c>
       <c r="D128">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E128">
         <v>41.6</v>
       </c>
       <c r="F128">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 22:15:18</v>
+        <v>2023-10-14 00:07:35</v>
       </c>
       <c r="B129">
-        <v>47.24</v>
+        <v>46.5</v>
       </c>
       <c r="C129">
-        <v>66.14</v>
+        <v>68.86</v>
       </c>
       <c r="D129">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E129">
-        <v>43.2</v>
+        <v>41.6</v>
       </c>
       <c r="F129">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-13 03:26:09</v>
+        <v>2023-10-14 05:16:11</v>
       </c>
       <c r="B130">
-        <v>46.84</v>
+        <v>46.6</v>
       </c>
       <c r="C130">
-        <v>66.16</v>
+        <v>68.89</v>
       </c>
       <c r="D130">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E130">
-        <v>41</v>
+        <v>41.6</v>
       </c>
       <c r="F130">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 08:36:22</v>
+        <v>2023-10-14 10:27:48</v>
       </c>
       <c r="B131">
-        <v>46.74</v>
+        <v>46.62</v>
       </c>
       <c r="C131">
-        <v>66.75</v>
+        <v>67.2</v>
       </c>
       <c r="D131">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E131">
-        <v>41</v>
+        <v>41.6</v>
       </c>
       <c r="F131">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 13:45:41</v>
+        <v>2023-10-14 15:36:05</v>
       </c>
       <c r="B132">
-        <v>46.61</v>
+        <v>46.3</v>
       </c>
       <c r="C132">
-        <v>66.75</v>
+        <v>67.2</v>
       </c>
       <c r="D132">
         <v>53</v>
       </c>
       <c r="E132">
-        <v>41.7</v>
+        <v>42</v>
       </c>
       <c r="F132">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 18:56:12</v>
+        <v>2023-10-14 20:46:04</v>
       </c>
       <c r="B133">
-        <v>46.58</v>
+        <v>46.08</v>
       </c>
       <c r="C133">
-        <v>68.86</v>
+        <v>68.38</v>
       </c>
       <c r="D133">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E133">
-        <v>41.6</v>
+        <v>40.7</v>
       </c>
       <c r="F133">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-14 00:07:35</v>
+        <v>2023-10-15 01:56:02</v>
       </c>
       <c r="B134">
-        <v>46.5</v>
+        <v>46.18</v>
       </c>
       <c r="C134">
-        <v>68.86</v>
+        <v>67.65</v>
       </c>
       <c r="D134">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E134">
-        <v>41.6</v>
+        <v>40.7</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-14 05:16:11</v>
+        <v>2023-10-15 07:06:47</v>
       </c>
       <c r="B135">
-        <v>46.6</v>
+        <v>46.25</v>
       </c>
       <c r="C135">
-        <v>68.89</v>
+        <v>67.2</v>
       </c>
       <c r="D135">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E135">
-        <v>41.6</v>
+        <v>40.6</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 10:27:48</v>
+        <v>2023-10-15 12:16:35</v>
       </c>
       <c r="B136">
-        <v>46.62</v>
+        <v>45.97</v>
       </c>
       <c r="C136">
         <v>67.2</v>
       </c>
       <c r="D136">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E136">
-        <v>41.6</v>
+        <v>40.9</v>
       </c>
       <c r="F136">
         <v>12</v>
@@ -3002,59 +3002,59 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 15:36:05</v>
+        <v>2023-10-15 17:26:14</v>
       </c>
       <c r="B137">
-        <v>46.3</v>
+        <v>45.93</v>
       </c>
       <c r="C137">
-        <v>67.2</v>
+        <v>66.69</v>
       </c>
       <c r="D137">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E137">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F137">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 20:46:04</v>
+        <v>2023-10-15 22:36:12</v>
       </c>
       <c r="B138">
-        <v>46.08</v>
+        <v>45.69</v>
       </c>
       <c r="C138">
-        <v>68.38</v>
+        <v>66.98</v>
       </c>
       <c r="D138">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E138">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="F138">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-15 01:56:02</v>
+        <v>2023-10-16 03:46:11</v>
       </c>
       <c r="B139">
-        <v>46.18</v>
+        <v>44.9</v>
       </c>
       <c r="C139">
-        <v>67.65</v>
+        <v>65.73</v>
       </c>
       <c r="D139">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E139">
-        <v>40.7</v>
+        <v>40.79</v>
       </c>
       <c r="F139">
         <v>11</v>
@@ -3062,39 +3062,39 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 07:06:47</v>
+        <v>2023-10-16 08:57:43</v>
       </c>
       <c r="B140">
-        <v>46.25</v>
+        <v>44.8</v>
       </c>
       <c r="C140">
-        <v>67.2</v>
+        <v>65.39</v>
       </c>
       <c r="D140">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E140">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 12:16:35</v>
+        <v>2023-10-16 14:08:17</v>
       </c>
       <c r="B141">
-        <v>45.97</v>
+        <v>44.7</v>
       </c>
       <c r="C141">
-        <v>67.2</v>
+        <v>65.39</v>
       </c>
       <c r="D141">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E141">
-        <v>40.9</v>
+        <v>40.79</v>
       </c>
       <c r="F141">
         <v>12</v>
@@ -3102,102 +3102,102 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 17:26:14</v>
+        <v>2023-10-16 19:16:45</v>
       </c>
       <c r="B142">
-        <v>45.93</v>
+        <v>44.49</v>
       </c>
       <c r="C142">
-        <v>66.69</v>
+        <v>65.81</v>
       </c>
       <c r="D142">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E142">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="F142">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 22:36:12</v>
+        <v>2023-10-17 00:26:34</v>
       </c>
       <c r="B143">
-        <v>45.69</v>
+        <v>44.48</v>
       </c>
       <c r="C143">
-        <v>66.98</v>
+        <v>64.59</v>
       </c>
       <c r="D143">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
-        <v>40.6</v>
+        <v>40.79</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-16 03:46:11</v>
+        <v>2023-10-17 05:36:34</v>
       </c>
       <c r="B144">
-        <v>44.9</v>
+        <v>44.84</v>
       </c>
       <c r="C144">
-        <v>65.73</v>
+        <v>67.41</v>
       </c>
       <c r="D144">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E144">
-        <v>40.79</v>
+        <v>40.6</v>
       </c>
       <c r="F144">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 08:57:43</v>
+        <v>2023-10-17 10:46:44</v>
       </c>
       <c r="B145">
-        <v>44.8</v>
+        <v>44.84</v>
       </c>
       <c r="C145">
-        <v>65.39</v>
+        <v>67.41</v>
       </c>
       <c r="D145">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E145">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="F145">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 14:08:17</v>
+        <v>2023-10-17 15:57:38</v>
       </c>
       <c r="B146">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="C146">
-        <v>65.39</v>
+        <v>67.63</v>
       </c>
       <c r="D146">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E146">
-        <v>40.79</v>
+        <v>41.1</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
